--- a/xdf_info3.xlsx
+++ b/xdf_info3.xlsx
@@ -14,231 +14,531 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
-  <si>
-    <t>仝彦俊</t>
-  </si>
-  <si>
-    <t>15292114029</t>
-  </si>
-  <si>
-    <t>西餐专业</t>
-  </si>
-  <si>
-    <t>2019-03-06 19:17:54</t>
-  </si>
-  <si>
-    <t>http://m.scxdf.com/</t>
-  </si>
-  <si>
-    <t>其他专业</t>
-  </si>
-  <si>
-    <t>2019-03-06 19:11:02</t>
-  </si>
-  <si>
-    <t>李良辉</t>
-  </si>
-  <si>
-    <t>13726209480</t>
-  </si>
-  <si>
-    <t>2019-03-06 18:43:47</t>
-  </si>
-  <si>
-    <t>https://m.scxdf.com/zt/dy/?xidian</t>
-  </si>
-  <si>
-    <t>14.116.38.145</t>
-  </si>
-  <si>
-    <t>鲁星墨</t>
-  </si>
-  <si>
-    <t>17684876732</t>
-  </si>
-  <si>
-    <t>厨师专业</t>
-  </si>
-  <si>
-    <t>2019-03-06 16:47:55</t>
-  </si>
-  <si>
-    <t>http://m.scxdf.com/?bdpz</t>
-  </si>
-  <si>
-    <t>肖懿玲</t>
-  </si>
-  <si>
-    <t>15985289339</t>
-  </si>
-  <si>
-    <t>西点专业</t>
-  </si>
-  <si>
-    <t>2019-03-06 14:29:47</t>
-  </si>
-  <si>
-    <t>http://m.scxdf.com/wl/cczyxf/?pczh-yd17010800105&amp;amp;jzl_kwd=92748658510&amp;amp;jzl_ctv=24207106191&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mt1&amp;amp;jzl_ch=11</t>
-  </si>
-  <si>
-    <t>2019-03-06 14:26:15</t>
-  </si>
-  <si>
-    <t>2019-03-06 14:25:51</t>
-  </si>
-  <si>
-    <t>罗莉</t>
-  </si>
-  <si>
-    <t>18681335761</t>
-  </si>
-  <si>
-    <t>2019-03-06 11:19:15</t>
-  </si>
-  <si>
-    <t>http://m.scxdf.com/zt/xf/?cszzh-010PPXF014021&amp;amp;jzl_kwd=92535292170&amp;amp;jzl_ctv=24164672439&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mt1&amp;amp;jzl_ch=11</t>
-  </si>
-  <si>
-    <t>李阳</t>
-  </si>
-  <si>
-    <t>18599457627</t>
-  </si>
-  <si>
-    <t>2019-03-06 09:22:32</t>
-  </si>
-  <si>
-    <t>http://m.scxdf.com/news/hyxw/24322.html?1509357642</t>
-  </si>
-  <si>
-    <t>郑山</t>
-  </si>
-  <si>
-    <t>13074763213</t>
-  </si>
-  <si>
-    <t>2019-03-06 06:55:52</t>
-  </si>
-  <si>
-    <t>http://m.scxdf.com/news/hyxw/30591.html</t>
-  </si>
-  <si>
-    <t>220.195.66.35</t>
-  </si>
-  <si>
-    <t>包佳琴</t>
-  </si>
-  <si>
-    <t>13714092132</t>
-  </si>
-  <si>
-    <t>2019-03-06 06:11:40</t>
-  </si>
-  <si>
-    <t>101.206.167.231</t>
-  </si>
-  <si>
-    <t>2019-03-06 06:09:13</t>
-  </si>
-  <si>
-    <t>鲍盼盼</t>
-  </si>
-  <si>
-    <t>18831087404</t>
-  </si>
-  <si>
-    <t>2019-03-06 05:54:08</t>
-  </si>
-  <si>
-    <t>http://m.scxdf.com/news/kzjs/22883.html</t>
-  </si>
-  <si>
-    <t>183.199.184.88</t>
-  </si>
-  <si>
-    <t>曾杰</t>
-  </si>
-  <si>
-    <t>15870127381</t>
-  </si>
-  <si>
-    <t>2019-03-06 03:30:24</t>
-  </si>
-  <si>
-    <t>http://m.scxdf.com/news/hyxw/24236.html</t>
-  </si>
-  <si>
-    <t>121.31.131.8</t>
-  </si>
-  <si>
-    <t>余熠</t>
-  </si>
-  <si>
-    <t>17313112319</t>
-  </si>
-  <si>
-    <t>2019-03-06 01:36:13</t>
-  </si>
-  <si>
-    <t>http://m.scxdf.com/zt/dqyj/?bdzb-092ZYSK001948&amp;amp;jzl_kwd=113656842338&amp;amp;jzl_ctv=27751413191&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mt3&amp;amp;jzl_ch=11</t>
-  </si>
-  <si>
-    <t>王建康</t>
-  </si>
-  <si>
-    <t>13778600063</t>
-  </si>
-  <si>
-    <t>2019-03-06 00:50:53</t>
-  </si>
-  <si>
-    <t>http://m.scxdf.com/zt/xdfpr/?bdcd-011PPCD005012-YJ&amp;amp;jzl_kwd=69924421456&amp;amp;jzl_ctv=18282536588&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mt1&amp;amp;jzl_ch=11</t>
-  </si>
-  <si>
-    <t>182.141.226.194</t>
-  </si>
-  <si>
-    <t>李红</t>
-  </si>
-  <si>
-    <t>15982613474</t>
-  </si>
-  <si>
-    <t>2019-03-06 00:22:34</t>
-  </si>
-  <si>
-    <t>http://m.scxdf.com/zt/xf/?bdcd-znzd-ppxf</t>
-  </si>
-  <si>
-    <t>182.131.99.231</t>
-  </si>
-  <si>
-    <t>王雅婷</t>
-  </si>
-  <si>
-    <t>18308161718</t>
-  </si>
-  <si>
-    <t>2019-03-06 00:02:51</t>
-  </si>
-  <si>
-    <t>http://m.scxdf.com/?sgpz</t>
-  </si>
-  <si>
-    <t>117.136.65.168</t>
-  </si>
-  <si>
-    <t>曾</t>
-  </si>
-  <si>
-    <t>13709035555</t>
-  </si>
-  <si>
-    <t>2019-03-06 00:01:21</t>
-  </si>
-  <si>
-    <t>222.53.251.124</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="175">
+  <si>
+    <t>闵霓虹</t>
+  </si>
+  <si>
+    <t>13778328150</t>
+  </si>
+  <si>
+    <t>2019-03-11 05:19:47</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/yjbm/?xdxc-08HYXD006002-YJ-GXF&amp;amp;jzl_kwd=111995374752&amp;amp;jzl_ctv=27448769639&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mt1&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>2019-03-11 05:19:36</t>
+  </si>
+  <si>
+    <t>陈佳琳</t>
+  </si>
+  <si>
+    <t>13734959004</t>
+  </si>
+  <si>
+    <t>2019-03-11 00:53:46</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/yjbm/?xdxc-18HYDG016986&amp;amp;jzl_kwd=114753470726&amp;amp;jzl_ctv=27978048985&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mt2&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>夏万</t>
+  </si>
+  <si>
+    <t>15641127546</t>
+  </si>
+  <si>
+    <t>2019-03-11 00:21:50</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/kfyj/?xdxc-22ZYKF009918&amp;amp;jzl_kwd=115096764777&amp;amp;jzl_ctv=28064074310&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mt1&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>郑通</t>
+  </si>
+  <si>
+    <t>14598772707</t>
+  </si>
+  <si>
+    <t>2019-03-10 14:02:45</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/xxxd/?xdxc-030HYLL886494&amp;amp;jzl_kwd=114539890462&amp;amp;jzl_ctv=27926129127&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mt2&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>李姐</t>
+  </si>
+  <si>
+    <t>18140219965</t>
+  </si>
+  <si>
+    <t>2019-03-10 11:10:00</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/xxxd/?xdxc-04HYXD002007&amp;amp;jzl_kwd=111033528483&amp;amp;jzl_ctv=27204726182&amp;amp;jzl_mtt=1&amp;amp;jzl_adt=mt1&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>吕坤</t>
+  </si>
+  <si>
+    <t>13288159883</t>
+  </si>
+  <si>
+    <t>2019-03-10 08:09:26</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/xxxd/?xdxc-030HYLL886503&amp;amp;jzl_kwd=114539890466&amp;amp;jzl_ctv=27926129129&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mt1&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>涂奔</t>
+  </si>
+  <si>
+    <t>1528385</t>
+  </si>
+  <si>
+    <t>2019-03-10 06:25:18</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/kfyj/?xdxc-22ZYKF021559&amp;amp;jzl_kwd=115096764539&amp;amp;jzl_ctv=28064074320&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mt1&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>闻左全</t>
+  </si>
+  <si>
+    <t>13240074254</t>
+  </si>
+  <si>
+    <t>2019-03-09 22:54:42</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/xf/?xdxc-17HYDG016936</t>
+  </si>
+  <si>
+    <t>文政奎</t>
+  </si>
+  <si>
+    <t>13558927903</t>
+  </si>
+  <si>
+    <t>2019-03-09 00:02:25</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/yjbm/?xdxc-35ZYHB000576&amp;amp;jzl_kwd=115096764377&amp;amp;jzl_ctv=28064074382&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mb0&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>2019-03-09 00:02:24</t>
+  </si>
+  <si>
+    <t>桂边贝</t>
+  </si>
+  <si>
+    <t>13245806317</t>
+  </si>
+  <si>
+    <t>2019-03-08 09:08:10</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/xxxd/?xdxc-05HYXD021003&amp;amp;jzl_kwd=111033527240&amp;amp;jzl_ctv=27204726347&amp;amp;jzl_mtt=1&amp;amp;jzl_adt=mt1&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>陈小燕</t>
+  </si>
+  <si>
+    <t>18113106523</t>
+  </si>
+  <si>
+    <t>2019-03-08 00:40:51</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/yjbm/?xdxc-32DGYJ015883&amp;amp;jzl_kwd=114753470587&amp;amp;jzl_ctv=27978049229&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mt1&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>叶韦</t>
+  </si>
+  <si>
+    <t>18117866666</t>
+  </si>
+  <si>
+    <t>2019-03-08 00:25:08</t>
+  </si>
+  <si>
+    <t>阙颖</t>
+  </si>
+  <si>
+    <t>13808077995</t>
+  </si>
+  <si>
+    <t>2019-03-07 23:12:04</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/kfyj/?xdxc-22ZYKF009094&amp;amp;jzl_kwd=115096765012&amp;amp;jzl_ctv=28064074402&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mt2&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>丁江</t>
+  </si>
+  <si>
+    <t>15598863446</t>
+  </si>
+  <si>
+    <t>2019-03-07 19:20:15</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/zysz/xdzy/?xdxc-17HYDG017114</t>
+  </si>
+  <si>
+    <t>於鲁宓</t>
+  </si>
+  <si>
+    <t>15589932437</t>
+  </si>
+  <si>
+    <t>2019-03-07 12:03:01</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/xxxd/?xdxc-030HYLL886503&amp;amp;jzl_kwd=114539890466&amp;amp;jzl_ctv=27926129128&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mt1&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>冯妙涵</t>
+  </si>
+  <si>
+    <t>13166278230</t>
+  </si>
+  <si>
+    <t>2019-03-07 08:49:46</t>
+  </si>
+  <si>
+    <t>赵蓉</t>
+  </si>
+  <si>
+    <t>15908108823</t>
+  </si>
+  <si>
+    <t>2019-03-07 07:50:32</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/yjbm/?xdxc-09HYXD1391-YJ&amp;amp;jzl_kwd=111995374863&amp;amp;jzl_ctv=27204725829&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mt1&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>吴国亮</t>
+  </si>
+  <si>
+    <t>15228313933</t>
+  </si>
+  <si>
+    <t>2019-03-07 00:28:46</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/yjbm/?xdxc-09HYXD1283-YJ&amp;amp;jzl_kwd=114446962518-YJ&amp;amp;jzl_ctv=27901378767-YJ&amp;amp;jzl_mtt=2-YJ&amp;amp;jzl_adt=mt1-YJ&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>李易峰</t>
+  </si>
+  <si>
+    <t>13887551423</t>
+  </si>
+  <si>
+    <t>2019-03-06 17:02:41</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/xxxd/?xdxc-04HYXD016005&amp;amp;jzl_kwd=111033527602&amp;amp;jzl_ctv=27204726329&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mb0&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>2019-03-06 17:02:37</t>
+  </si>
+  <si>
+    <t>刘玲</t>
+  </si>
+  <si>
+    <t>18181980015</t>
+  </si>
+  <si>
+    <t>2019-03-06 01:57:04</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/yjbm/?xdxc-09HYXD1264-YJ&amp;amp;jzl_kwd=114446962676-YJ&amp;amp;jzl_ctv=27901378761-YJ&amp;amp;jzl_mtt=1-YJ&amp;amp;jzl_adt=mt1-YJ&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>蒋</t>
+  </si>
+  <si>
+    <t>18123366583</t>
+  </si>
+  <si>
+    <t>2019-03-05 22:46:09</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/yjbm/?xdxc-09HYXD1352-YJ&amp;amp;jzl_kwd=111995374946&amp;amp;jzl_ctv=27204725662&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mt1&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>2019-03-05 22:45:26</t>
+  </si>
+  <si>
+    <t>刘缘</t>
+  </si>
+  <si>
+    <t>13088161151</t>
+  </si>
+  <si>
+    <t>2019-03-05 07:22:26</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/yjbm/?xdxc-09HYXD1292-YJ&amp;amp;jzl_kwd=114446962509-YJ&amp;amp;jzl_ctv=27901378767-YJ&amp;amp;jzl_mtt=2-YJ&amp;amp;jzl_adt=mt2-YJ&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>刘宇</t>
+  </si>
+  <si>
+    <t>18181196766</t>
+  </si>
+  <si>
+    <t>2019-03-05 01:27:29</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/yjbm/?xdxc-09HYXD1382-YJ&amp;amp;jzl_kwd=111995374873&amp;amp;jzl_ctv=27204725655&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mt1&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>刘丽</t>
+  </si>
+  <si>
+    <t>13809917618</t>
+  </si>
+  <si>
+    <t>2019-03-04 19:45:58</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/zysz/xdqh/?xdxc-31ZYCL013782&amp;amp;jzl_kwd=114613714744&amp;amp;jzl_ctv=27943009663&amp;amp;jzl_mtt=1&amp;amp;jzl_adt=mt1&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>Denial</t>
+  </si>
+  <si>
+    <t>17381920693</t>
+  </si>
+  <si>
+    <t>2019-03-04 19:37:41</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/zysz/rhll/?xdxc-21ZYRL003374&amp;amp;jzl_kwd=111587348111&amp;amp;jzl_ctv=27325206324&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mt2&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>王俊凯</t>
+  </si>
+  <si>
+    <t>2019-03-04 00:51:19</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/yjbm/?xdxc-17HYDG016673&amp;amp;jzl_kwd=114753470577&amp;amp;jzl_ctv=27978049191&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mb0&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>2019-03-04 00:51:16</t>
+  </si>
+  <si>
+    <t>郑熙涵</t>
+  </si>
+  <si>
+    <t>15321035654</t>
+  </si>
+  <si>
+    <t>2019-03-03 15:31:53</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/zysz/xczy/?xdxc-16HYXC002001-GXF&amp;amp;jzl_kwd=111033524845&amp;amp;jzl_ctv=27458212061&amp;amp;jzl_mtt=1&amp;amp;jzl_adt=mt1&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>杨玉华</t>
+  </si>
+  <si>
+    <t>15082568375</t>
+  </si>
+  <si>
+    <t>2019-03-01 22:43:29</t>
+  </si>
+  <si>
+    <t>171.208.155.200</t>
+  </si>
+  <si>
+    <t>常敏</t>
+  </si>
+  <si>
+    <t>15198185737</t>
+  </si>
+  <si>
+    <t>2019-03-01 20:53:30</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/zysz/jpkf/?xdxc-22ZYKF009919&amp;amp;jzl_kwd=111587348090&amp;amp;jzl_ctv=27325206258&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mt2&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>韦郏窦</t>
+  </si>
+  <si>
+    <t>18957898711</t>
+  </si>
+  <si>
+    <t>2019-03-01 14:53:22</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/xxxd/?xdxc-04HYXD005006&amp;amp;jzl_kwd=111033528707&amp;amp;jzl_ctv=27204726341&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mt1&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>闵霓红</t>
+  </si>
+  <si>
+    <t>15882980815</t>
+  </si>
+  <si>
+    <t>2019-03-01 11:28:14</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/mbpx/?xdxc-083ZYMB006700&amp;amp;jzl_kwd=114491773488&amp;amp;jzl_ctv=27913472121&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mb0&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>陈春宇</t>
+  </si>
+  <si>
+    <t>18280201172</t>
+  </si>
+  <si>
+    <t>2019-03-01 07:22:21</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/yjbm/?xdxc-09PPXD1576-YJ&amp;amp;jzl_kwd=114446962476-YJ&amp;amp;jzl_ctv=27901378345-YJ&amp;amp;jzl_mtt=1-YJ&amp;amp;jzl_adt=mt2-YJ&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>短信获取学费</t>
+  </si>
+  <si>
+    <t>18708344700</t>
+  </si>
+  <si>
+    <t>2019-03-01 07:19:14</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/yjbm/?xdxc-09HYXD1387-YJ&amp;amp;jzl_kwd=111995375050&amp;amp;jzl_ctv=27204725836&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mt1&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>胡女士</t>
+  </si>
+  <si>
+    <t>1308109715</t>
+  </si>
+  <si>
+    <t>2019-03-01 07:14:31</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/yjbm/?xdxc-08HYXD006003-YJ-GXF&amp;amp;jzl_kwd=111995374755&amp;amp;jzl_ctv=27448769639&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mt2&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>赵开敏</t>
+  </si>
+  <si>
+    <t>15884654672</t>
+  </si>
+  <si>
+    <t>2019-02-28 22:48:10</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/yjbm/?xdxc-09HYXD1044-YJ&amp;amp;jzl_kwd=114446962266-YJ&amp;amp;jzl_ctv=27901378299-YJ&amp;amp;jzl_mtt=2-YJ&amp;amp;jzl_adt=mt1-YJ&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>蒋清明</t>
+  </si>
+  <si>
+    <t>18782428021</t>
+  </si>
+  <si>
+    <t>2019-02-28 16:01:02</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/xxxd/?xdxc-03HYXD001013&amp;amp;jzl_kwd=111033527391&amp;amp;jzl_ctv=27204726043&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mt3&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>2019-02-28 15:59:22</t>
+  </si>
+  <si>
+    <t>汪凡</t>
+  </si>
+  <si>
+    <t>13088161191</t>
+  </si>
+  <si>
+    <t>2019-02-28 07:51:14</t>
+  </si>
+  <si>
+    <t>周女士</t>
+  </si>
+  <si>
+    <t>18081982791</t>
+  </si>
+  <si>
+    <t>2019-02-28 00:26:39</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/yjbm/?xdxc-09HYXD1112-YJ&amp;amp;jzl_kwd=111995375019&amp;amp;jzl_ctv=27204726417&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mt3&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>雷芳</t>
+  </si>
+  <si>
+    <t>18784956211</t>
+  </si>
+  <si>
+    <t>2019-02-27 18:40:50</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/xhb/?xdxc-05HYXD017002&amp;amp;jzl_kwd=111033528271&amp;amp;jzl_ctv=27204726408&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mt1&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>王～～</t>
+  </si>
+  <si>
+    <t>13880530894</t>
+  </si>
+  <si>
+    <t>2019-02-27 00:18:33</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/yjbm/?xdxc-09HYXD043011-YJ&amp;amp;jzl_kwd=111995374965&amp;amp;jzl_ctv=27204725852&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mt1&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>任国忠</t>
+  </si>
+  <si>
+    <t>17381110211</t>
+  </si>
+  <si>
+    <t>2019-02-26 22:06:38</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/yjbm/?xdxc-08HYXD006001-YJ-GXF&amp;amp;jzl_kwd=111995374753&amp;amp;jzl_ctv=27448769639&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mt1&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>2019-02-26 22:05:07</t>
+  </si>
+  <si>
+    <t>卢都星</t>
+  </si>
+  <si>
+    <t>17776209895</t>
+  </si>
+  <si>
+    <t>2019-02-26 13:01:48</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/xxxd/?xdxc-19HYDG015920&amp;amp;jzl_kwd=111591153227&amp;amp;jzl_ctv=27448769833&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mt1&amp;amp;jzl_ch=11</t>
+  </si>
+  <si>
+    <t>张静</t>
+  </si>
+  <si>
+    <t>13990674357</t>
+  </si>
+  <si>
+    <t>2019-02-26 01:45:41</t>
+  </si>
+  <si>
+    <t>http://m.scxdfxx.com/a/yjbm/?xdxc-09HYXD049009-YJ&amp;amp;jzl_kwd=111995374906&amp;amp;jzl_ctv=27204725728&amp;amp;jzl_mtt=2&amp;amp;jzl_adt=mt1&amp;amp;jzl_ch=11</t>
   </si>
 </sst>
 </file>
@@ -583,13 +883,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -599,14 +899,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -614,67 +911,55 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -684,201 +969,165 @@
       <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
       <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="D16" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -889,67 +1138,508 @@
         <v>63</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
         <v>64</v>
       </c>
-      <c r="E18" t="s">
+      <c r="B19" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
         <v>66</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="B20" t="s">
         <v>69</v>
       </c>
-      <c r="E19" t="s">
+      <c r="C20" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
+      <c r="D20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>72</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B21" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="C21" t="s">
         <v>74</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>158</v>
+      </c>
+      <c r="B46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="D1" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
     <hyperlink ref="D3" r:id="rId3"/>
-    <hyperlink ref="E4" r:id="rId4"/>
-    <hyperlink ref="E5" r:id="rId5"/>
-    <hyperlink ref="E6" r:id="rId6"/>
-    <hyperlink ref="E7" r:id="rId7"/>
-    <hyperlink ref="E8" r:id="rId8"/>
-    <hyperlink ref="E9" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="E16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="D5" r:id="rId5"/>
+    <hyperlink ref="D6" r:id="rId6"/>
+    <hyperlink ref="D7" r:id="rId7"/>
+    <hyperlink ref="D8" r:id="rId8"/>
+    <hyperlink ref="D9" r:id="rId9"/>
+    <hyperlink ref="D10" r:id="rId10"/>
+    <hyperlink ref="D11" r:id="rId11"/>
+    <hyperlink ref="D12" r:id="rId12"/>
+    <hyperlink ref="D13" r:id="rId13"/>
+    <hyperlink ref="D14" r:id="rId14"/>
+    <hyperlink ref="D15" r:id="rId15"/>
+    <hyperlink ref="D16" r:id="rId16"/>
+    <hyperlink ref="D17" r:id="rId17"/>
+    <hyperlink ref="D18" r:id="rId18"/>
+    <hyperlink ref="D19" r:id="rId19"/>
+    <hyperlink ref="D20" r:id="rId20"/>
+    <hyperlink ref="D21" r:id="rId21"/>
+    <hyperlink ref="D22" r:id="rId22"/>
+    <hyperlink ref="D23" r:id="rId23"/>
+    <hyperlink ref="D24" r:id="rId24"/>
+    <hyperlink ref="D25" r:id="rId25"/>
+    <hyperlink ref="D26" r:id="rId26"/>
+    <hyperlink ref="D27" r:id="rId27"/>
+    <hyperlink ref="D28" r:id="rId28"/>
+    <hyperlink ref="D29" r:id="rId29"/>
+    <hyperlink ref="D30" r:id="rId30"/>
+    <hyperlink ref="D31" r:id="rId31"/>
+    <hyperlink ref="D32" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
